--- a/Team-Data/2012-13/2-14-2012-13.xlsx
+++ b/Team-Data/2012-13/2-14-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -819,7 +886,7 @@
         <v>15</v>
       </c>
       <c r="BC2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>0.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1132,13 +1199,13 @@
         <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM4" t="n">
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
@@ -1177,7 +1244,7 @@
         <v>3</v>
       </c>
       <c r="BA4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB4" t="n">
         <v>20</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-8.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>1.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
@@ -1529,7 +1596,7 @@
         <v>15</v>
       </c>
       <c r="AW6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
@@ -1678,13 +1745,13 @@
         <v>27</v>
       </c>
       <c r="AL7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
         <v>15</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -1836,13 +1903,13 @@
         <v>-1.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG8" t="n">
         <v>19</v>
@@ -1860,7 +1927,7 @@
         <v>12</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM8" t="n">
         <v>13</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
@@ -2403,7 +2470,7 @@
         <v>8</v>
       </c>
       <c r="AK11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2430,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>2.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
@@ -2621,7 +2688,7 @@
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX12" t="n">
         <v>27</v>
@@ -2636,7 +2703,7 @@
         <v>16</v>
       </c>
       <c r="BB12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>2.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -2850,55 +2917,55 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" t="n">
         <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.696</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J14" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.357</v>
+        <v>0.353</v>
       </c>
       <c r="O14" t="n">
         <v>16.7</v>
       </c>
       <c r="P14" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.704</v>
+        <v>0.702</v>
       </c>
       <c r="R14" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S14" t="n">
         <v>30.3</v>
       </c>
       <c r="T14" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U14" t="n">
         <v>23.3</v>
@@ -2907,31 +2974,31 @@
         <v>14.8</v>
       </c>
       <c r="W14" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="X14" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>4</v>
@@ -2943,7 +3010,7 @@
         <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ14" t="n">
         <v>25</v>
@@ -2952,10 +3019,10 @@
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AM14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN14" t="n">
         <v>12</v>
@@ -2997,10 +3064,10 @@
         <v>23</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" t="n">
         <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" t="n">
-        <v>0.463</v>
+        <v>0.472</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3050,22 +3117,22 @@
         <v>37.1</v>
       </c>
       <c r="J15" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L15" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="M15" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O15" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P15" t="n">
         <v>27.2</v>
@@ -3077,13 +3144,13 @@
         <v>11.7</v>
       </c>
       <c r="S15" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T15" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="U15" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V15" t="n">
         <v>15.3</v>
@@ -3095,31 +3162,31 @@
         <v>5.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z15" t="n">
         <v>18.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB15" t="n">
         <v>101.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>17</v>
       </c>
       <c r="AF15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
         <v>29</v>
@@ -3128,19 +3195,19 @@
         <v>14</v>
       </c>
       <c r="AJ15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM15" t="n">
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
         <v>4</v>
@@ -3158,19 +3225,19 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV15" t="n">
         <v>26</v>
       </c>
       <c r="AW15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
@@ -3185,7 +3252,7 @@
         <v>6</v>
       </c>
       <c r="BC15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -3358,7 +3425,7 @@
         <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA16" t="n">
         <v>18</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.72</v>
+        <v>0.714</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
@@ -3414,16 +3481,16 @@
         <v>38.8</v>
       </c>
       <c r="J17" t="n">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.493</v>
+        <v>0.494</v>
       </c>
       <c r="L17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M17" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N17" t="n">
         <v>0.386</v>
@@ -3435,19 +3502,19 @@
         <v>22.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R17" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="S17" t="n">
         <v>30.2</v>
       </c>
       <c r="T17" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="U17" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V17" t="n">
         <v>13.4</v>
@@ -3456,31 +3523,31 @@
         <v>8.4</v>
       </c>
       <c r="X17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
       </c>
       <c r="AF17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG17" t="n">
         <v>3</v>
@@ -3531,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX17" t="n">
         <v>16</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA17" t="n">
         <v>11</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3774,7 @@
         <v>7</v>
       </c>
       <c r="AU18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV18" t="n">
         <v>8</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3923,7 @@
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-3</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
         <v>23</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -4274,7 +4341,7 @@
         <v>21</v>
       </c>
       <c r="BB21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC21" t="n">
         <v>5</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -4306,64 +4373,64 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" t="n">
         <v>39</v>
       </c>
       <c r="F22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" t="n">
-        <v>0.736</v>
+        <v>0.75</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
       </c>
       <c r="I22" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J22" t="n">
-        <v>79.09999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K22" t="n">
         <v>0.482</v>
       </c>
       <c r="L22" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M22" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.389</v>
+        <v>0.391</v>
       </c>
       <c r="O22" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="P22" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.828</v>
+        <v>0.825</v>
       </c>
       <c r="R22" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S22" t="n">
         <v>32.6</v>
       </c>
       <c r="T22" t="n">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="U22" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V22" t="n">
         <v>15.6</v>
       </c>
       <c r="W22" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X22" t="n">
         <v>7.5</v>
@@ -4375,16 +4442,16 @@
         <v>20.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>106</v>
+        <v>106.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ22" t="n">
         <v>28</v>
@@ -4432,7 +4499,7 @@
         <v>6</v>
       </c>
       <c r="AT22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU22" t="n">
         <v>17</v>
@@ -4456,7 +4523,7 @@
         <v>8</v>
       </c>
       <c r="BB22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4614,7 +4681,7 @@
         <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU23" t="n">
         <v>6</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4821,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG24" t="n">
         <v>20</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>26</v>
@@ -4990,7 +5057,7 @@
         <v>17</v>
       </c>
       <c r="AX25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>18</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-3</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -5500,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM28" t="n">
         <v>6</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-14-2012-13</t>
+          <t>2013-02-14</t>
         </is>
       </c>
     </row>
